--- a/data/trans_orig/P55S_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6421</v>
+        <v>6657</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2375092197467275</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6329622563618608</v>
+        <v>0.6562449944213632</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7247</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3073</v>
+        <v>3042</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10495</v>
+        <v>10508</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5421484073246889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2298722049513539</v>
+        <v>0.2275482881439289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7851675728773096</v>
+        <v>0.7860966762715558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5042</v>
+        <v>5057</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15087</v>
+        <v>14949</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4107077566963832</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.214457237605915</v>
+        <v>0.2150877471417414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6417211846779932</v>
+        <v>0.6358739192890968</v>
       </c>
     </row>
     <row r="5">
@@ -862,7 +862,7 @@
         <v>7735</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3723</v>
+        <v>3487</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>10144</v>
@@ -871,7 +871,7 @@
         <v>0.7624907802532724</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3670377436381392</v>
+        <v>0.3437550055786341</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -883,19 +883,19 @@
         <v>5205</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9441</v>
+        <v>9346</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3894039617888575</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.147077971342367</v>
+        <v>0.1474928274975606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7062605284830601</v>
+        <v>0.6992009884059401</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -904,19 +904,19 @@
         <v>12939</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7457</v>
+        <v>7806</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17740</v>
+        <v>17526</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5503772579353278</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3171967154135557</v>
+        <v>0.3320498695201559</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7545584359403485</v>
+        <v>0.7454662836122378</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3876</v>
+        <v>4752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06844763088645354</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2899845513059303</v>
+        <v>0.3555147587532826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3951</v>
+        <v>4958</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03891498536828901</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.168075012084883</v>
+        <v>0.2108993032191876</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5521</v>
+        <v>5473</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1747213873696926</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5112755198857832</v>
+        <v>0.5068513352271226</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1113,19 +1113,19 @@
         <v>4208</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8942</v>
+        <v>8832</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2605728687039698</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06956896578047485</v>
+        <v>0.06927002453661844</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5536614625937138</v>
+        <v>0.5468852886840709</v>
       </c>
     </row>
     <row r="10">
@@ -1189,19 +1189,19 @@
         <v>7160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3204</v>
+        <v>2862</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9885</v>
+        <v>9890</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6631026641894253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2966958562433042</v>
+        <v>0.2650412545199712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9154253792786093</v>
+        <v>0.915913933018879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1231,19 +1231,19 @@
         <v>10191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5725</v>
+        <v>5589</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14105</v>
+        <v>13938</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6309991688958612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3545070350822147</v>
+        <v>0.3460986711933841</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8733857172082471</v>
+        <v>0.8630237134926777</v>
       </c>
     </row>
     <row r="12">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6126</v>
+        <v>5901</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.162175948440882</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5673117344615001</v>
+        <v>0.5465326126293191</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7442</v>
+        <v>7551</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.108427962400169</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4608315423377208</v>
+        <v>0.4675236180875457</v>
       </c>
     </row>
     <row r="13">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4279</v>
+        <v>5117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05245882961323468</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2374823361372752</v>
+        <v>0.2840117324440178</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1419,19 +1419,19 @@
         <v>3332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6492</v>
+        <v>6424</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.400449688729597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1270359183929634</v>
+        <v>0.125538078664622</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7803234238855266</v>
+        <v>0.772118383710157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1440,19 +1440,19 @@
         <v>4277</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1094</v>
+        <v>1147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9287</v>
+        <v>9179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.162390394275739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04151963028321942</v>
+        <v>0.04354367139775851</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3525960760078123</v>
+        <v>0.3484942678503131</v>
       </c>
     </row>
     <row r="15">
@@ -1516,19 +1516,19 @@
         <v>15123</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10889</v>
+        <v>11115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17140</v>
+        <v>17145</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8393356085837005</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.604328938642555</v>
+        <v>0.6168561598855589</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9512958590273303</v>
+        <v>0.9515243843805737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1537,19 +1537,19 @@
         <v>3344</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1054</v>
+        <v>1038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6473</v>
+        <v>6356</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4019507198494629</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1267095458706334</v>
+        <v>0.1247893627617226</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.778041959570942</v>
+        <v>0.7639211647814492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1558,19 +1558,19 @@
         <v>18467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13200</v>
+        <v>13443</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22514</v>
+        <v>22591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7011641482747039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5011936122206034</v>
+        <v>0.510420144949125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8548067776294821</v>
+        <v>0.8577449052321169</v>
       </c>
     </row>
     <row r="17">
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6574</v>
+        <v>5807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1082055618030648</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3648523512814707</v>
+        <v>0.3222696428195864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4719</v>
+        <v>4694</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1975995914209401</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5671371235663218</v>
+        <v>0.5641428640902898</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1629,19 +1629,19 @@
         <v>3594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8300</v>
+        <v>8379</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1364454574495571</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03640233846755766</v>
+        <v>0.03541987412312022</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3151442304771914</v>
+        <v>0.3181455168312928</v>
       </c>
     </row>
     <row r="18">
@@ -1733,19 +1733,19 @@
         <v>8897</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4372</v>
+        <v>5068</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14588</v>
+        <v>16164</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1259710263940656</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06189896455032641</v>
+        <v>0.07175150401595501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.206558836587518</v>
+        <v>0.2288618064164903</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5651</v>
+        <v>5671</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0767642730836597</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2412891838698184</v>
+        <v>0.2421332767658021</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1775,19 +1775,19 @@
         <v>10695</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5559</v>
+        <v>6302</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17560</v>
+        <v>18116</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1137170266398304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05911198688488789</v>
+        <v>0.06700648612906396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1867171393613956</v>
+        <v>0.1926249609352439</v>
       </c>
     </row>
     <row r="20">
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6204</v>
+        <v>3378</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01183221638589914</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.087841965509693</v>
+        <v>0.04782524702698703</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7796</v>
+        <v>5754</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04983563194708374</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3328719980905549</v>
+        <v>0.2456856937075587</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7121</v>
+        <v>7104</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02129623938309158</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07572257440849763</v>
+        <v>0.07553959888801882</v>
       </c>
     </row>
     <row r="21">
@@ -1875,19 +1875,19 @@
         <v>58160</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51485</v>
+        <v>50812</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63745</v>
+        <v>63310</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8234912348131189</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7289843764971079</v>
+        <v>0.7194569900368833</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9025767704048346</v>
+        <v>0.8964096176921754</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1896,19 +1896,19 @@
         <v>19584</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14184</v>
+        <v>15214</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22483</v>
+        <v>22499</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8361684499708204</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6056018215652368</v>
+        <v>0.6495945278559117</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9599674412073705</v>
+        <v>0.9606323670282938</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -1917,19 +1917,19 @@
         <v>77744</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>69962</v>
+        <v>70297</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84063</v>
+        <v>83397</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8266482525185324</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.743909213873283</v>
+        <v>0.7474717219863521</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8938451948457173</v>
+        <v>0.8867640325324725</v>
       </c>
     </row>
     <row r="22">
@@ -1946,19 +1946,19 @@
         <v>2734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8444</v>
+        <v>7140</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03870552240691629</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01181707339601214</v>
+        <v>0.01184149297477059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1195542877312564</v>
+        <v>0.1011017138243147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4371</v>
+        <v>3667</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03723164499843615</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1866145280438269</v>
+        <v>0.1565698545558615</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1988,19 +1988,19 @@
         <v>3606</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8250</v>
+        <v>8346</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03833848145854571</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009924098571388458</v>
+        <v>0.01004828880744872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08771791831588695</v>
+        <v>0.08873768711071919</v>
       </c>
     </row>
     <row r="23">
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3924</v>
+        <v>4529</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05422141086271504</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2440506606231701</v>
+        <v>0.2816689837403398</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2113,19 +2113,19 @@
         <v>8178</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3724</v>
+        <v>3637</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14374</v>
+        <v>14856</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2245825328641198</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1022746444577327</v>
+        <v>0.09988209702027794</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3947468148898666</v>
+        <v>0.4079635344593022</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2134,19 +2134,19 @@
         <v>9050</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4454</v>
+        <v>4209</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15679</v>
+        <v>15466</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1724006775253049</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08484260059442471</v>
+        <v>0.08018749236264573</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2986866974248906</v>
+        <v>0.2946356162181569</v>
       </c>
     </row>
     <row r="25">
@@ -2176,19 +2176,19 @@
         <v>5170</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11079</v>
+        <v>10783</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1419757376514414</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05380123769040263</v>
+        <v>0.05365363100701194</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3042638393325522</v>
+        <v>0.2961179516628952</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2197,19 +2197,19 @@
         <v>5170</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1932</v>
+        <v>1967</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11358</v>
+        <v>10510</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0984883661390141</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0367984862022519</v>
+        <v>0.03748033187867886</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2163678333269292</v>
+        <v>0.2002147703297741</v>
       </c>
     </row>
     <row r="26">
@@ -2226,7 +2226,7 @@
         <v>15207</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12155</v>
+        <v>11550</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>16079</v>
@@ -2235,7 +2235,7 @@
         <v>0.945778589137285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7559493393768288</v>
+        <v>0.7183310162596598</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2247,19 +2247,19 @@
         <v>20825</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14762</v>
+        <v>14206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26544</v>
+        <v>26505</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5718908518122041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4053886594687272</v>
+        <v>0.3901272112604494</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7289417087642536</v>
+        <v>0.7278763323095067</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -2268,19 +2268,19 @@
         <v>36032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28017</v>
+        <v>28504</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41952</v>
+        <v>42282</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.686413200531493</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5337200123266653</v>
+        <v>0.5430062582357945</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7991954596453333</v>
+        <v>0.8054877086746937</v>
       </c>
     </row>
     <row r="27">
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7099</v>
+        <v>7017</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06155087767223454</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1949593846620757</v>
+        <v>0.1927095271350753</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7055</v>
+        <v>8040</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04269775580418797</v>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1344038077532115</v>
+        <v>0.153156723522636</v>
       </c>
     </row>
     <row r="28">
@@ -2448,19 +2448,19 @@
         <v>25343</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16869</v>
+        <v>17451</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35551</v>
+        <v>36765</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1759306858832249</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1171078398784159</v>
+        <v>0.1211448657696423</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2467987149416004</v>
+        <v>0.255225061226868</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2469,19 +2469,19 @@
         <v>25343</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16993</v>
+        <v>16882</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36125</v>
+        <v>35720</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1748209756192094</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1172217494008315</v>
+        <v>0.1164595797860589</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2492016696369903</v>
+        <v>0.2464094450427231</v>
       </c>
     </row>
     <row r="30">
@@ -2511,19 +2511,19 @@
         <v>4426</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11044</v>
+        <v>12254</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0307238474718364</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007746131036732915</v>
+        <v>0.007841634791053226</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07667156586185112</v>
+        <v>0.08506723489269881</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2532,19 +2532,19 @@
         <v>4426</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1173</v>
+        <v>1137</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11392</v>
+        <v>10257</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03053005200791049</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.008091482894995842</v>
+        <v>0.007844067606781734</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07858272912282802</v>
+        <v>0.07075600082877533</v>
       </c>
     </row>
     <row r="31">
@@ -2574,19 +2574,19 @@
         <v>104741</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>93678</v>
+        <v>92807</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>114007</v>
+        <v>114501</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7271176517039822</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6503233199290627</v>
+        <v>0.6442762866052244</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7914476744214036</v>
+        <v>0.7948768796439097</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>97</v>
@@ -2595,19 +2595,19 @@
         <v>105655</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>93866</v>
+        <v>92864</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>115004</v>
+        <v>115384</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7288388997128358</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6475192118384873</v>
+        <v>0.6406028849599564</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7933330224711851</v>
+        <v>0.7959529792802266</v>
       </c>
     </row>
     <row r="32">
@@ -2637,19 +2637,19 @@
         <v>9540</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5145</v>
+        <v>4130</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17864</v>
+        <v>16753</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06622781494095652</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03571470834269971</v>
+        <v>0.02867377496403935</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1240115496670779</v>
+        <v>0.1163009109493836</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -2658,19 +2658,19 @@
         <v>9540</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4325</v>
+        <v>4675</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16809</v>
+        <v>18267</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06581007266004436</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0298370340468967</v>
+        <v>0.03224804596093304</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1159519123787918</v>
+        <v>0.126013451168901</v>
       </c>
     </row>
     <row r="33">
@@ -2762,19 +2762,19 @@
         <v>15010</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>45</v>
@@ -2783,19 +2783,19 @@
         <v>48218</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>36914</v>
+        <v>36422</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>63679</v>
+        <v>61772</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2088085470507513</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1598563786335921</v>
+        <v>0.1577228088778697</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2757598114391963</v>
+        <v>0.2675023860821519</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>61</v>
@@ -2804,19 +2804,19 @@
         <v>63228</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>49949</v>
+        <v>50924</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>79290</v>
+        <v>78033</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.176861917608825</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.139717807864013</v>
+        <v>0.142445197230937</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2217901046181327</v>
+        <v>0.2182727943562024</v>
       </c>
     </row>
     <row r="35">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -2854,19 +2854,19 @@
         <v>10763</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18918</v>
+        <v>19190</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04660796929103392</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02308064388712291</v>
+        <v>0.02355958252150759</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08192300894079724</v>
+        <v>0.08310123515786429</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -2875,19 +2875,19 @@
         <v>11598</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6350</v>
+        <v>5299</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20286</v>
+        <v>19388</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03244325809063792</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01776248834287934</v>
+        <v>0.01482331737080797</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05674487036924866</v>
+        <v>0.05423232965068588</v>
       </c>
     </row>
     <row r="36">
@@ -2904,19 +2904,19 @@
         <v>104298</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>94745</v>
+        <v>95517</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>111981</v>
+        <v>112116</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.8239848027991133</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7485122786821964</v>
+        <v>0.7546099108305555</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8846786918138952</v>
+        <v>0.8857489583751416</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>145</v>
@@ -2925,19 +2925,19 @@
         <v>156728</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>141750</v>
+        <v>143405</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>170646</v>
+        <v>171563</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.678707217715202</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6138456184415008</v>
+        <v>0.6210085959529396</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7389759762282542</v>
+        <v>0.7429484714321775</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>255</v>
@@ -2946,19 +2946,19 @@
         <v>261028</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>243453</v>
+        <v>243818</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>275794</v>
+        <v>276047</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7301448585833309</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6809862609422086</v>
+        <v>0.6820071462578373</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7714487303605652</v>
+        <v>0.7721585582126316</v>
       </c>
     </row>
     <row r="37">
@@ -2975,19 +2975,19 @@
         <v>6434</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -2996,19 +2996,19 @@
         <v>15212</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -3017,19 +3017,19 @@
         <v>21647</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="38">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6056</v>
+        <v>6060</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2548843355514276</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7209376788623195</v>
+        <v>0.7214850256741365</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3405,19 +3405,19 @@
         <v>4349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1016</v>
+        <v>1042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8285</v>
+        <v>8302</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3729815641192487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08710749440417138</v>
+        <v>0.0893882703264743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7104828540549256</v>
+        <v>0.711941891584519</v>
       </c>
     </row>
     <row r="5">
@@ -3481,7 +3481,7 @@
         <v>6259</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>8400</v>
@@ -3490,7 +3490,7 @@
         <v>0.7451156644485725</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2790623211376805</v>
+        <v>0.2785149743258635</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3523,19 +3523,19 @@
         <v>7312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3376</v>
+        <v>3359</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10645</v>
+        <v>10619</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6270184358807512</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2895171459450743</v>
+        <v>0.2880581084154809</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9128925055958286</v>
+        <v>0.9106117296735257</v>
       </c>
     </row>
     <row r="7">
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5846</v>
+        <v>5891</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2142856753209997</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6146804216495358</v>
+        <v>0.6194447236990083</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6358</v>
+        <v>6367</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3208784293337291</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7218928906614643</v>
+        <v>0.722869978126861</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3716,19 +3716,19 @@
         <v>4864</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1805</v>
+        <v>1752</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9918</v>
+        <v>10797</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2655374315349899</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09854358672066281</v>
+        <v>0.09564408477830555</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.541433002187733</v>
+        <v>0.5894230685878943</v>
       </c>
     </row>
     <row r="10">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6011</v>
+        <v>5953</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2217680667240868</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6320833212685867</v>
+        <v>0.6259392888748051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6910</v>
+        <v>6174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1151379022531184</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.377238863743897</v>
+        <v>0.337046504795942</v>
       </c>
     </row>
     <row r="11">
@@ -3808,19 +3808,19 @@
         <v>5363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1239</v>
+        <v>2304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8469</v>
+        <v>8613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5639462579549135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1302653487153125</v>
+        <v>0.2423196356726133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8905110654841728</v>
+        <v>0.905682898865421</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -3829,7 +3829,7 @@
         <v>5982</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2450</v>
+        <v>2441</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>8808</v>
@@ -3838,7 +3838,7 @@
         <v>0.679121570666271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2781071093385358</v>
+        <v>0.277130021873139</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3850,19 +3850,19 @@
         <v>11345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6633</v>
+        <v>6543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15455</v>
+        <v>15263</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6193246662118918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3621226944854834</v>
+        <v>0.3571772667076634</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8436796950221361</v>
+        <v>0.8332028352175608</v>
       </c>
     </row>
     <row r="12">
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6396</v>
+        <v>6364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08148881938013973</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2617312292203494</v>
+        <v>0.260450866920443</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6099</v>
+        <v>6805</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1151295261519324</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3210017042618528</v>
+        <v>0.3581349321973179</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -4043,19 +4043,19 @@
         <v>4179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1022</v>
+        <v>1193</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9602</v>
+        <v>9857</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09620447986289493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02353012394303556</v>
+        <v>0.02746793653467802</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.221056270178047</v>
+        <v>0.2269209787201909</v>
       </c>
     </row>
     <row r="15">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6238</v>
+        <v>4582</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.041608710308115</v>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2552936173317246</v>
+        <v>0.1875249701226392</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -4093,19 +4093,19 @@
         <v>5499</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2170</v>
+        <v>2120</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10705</v>
+        <v>9892</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2894053780119198</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1141846181524375</v>
+        <v>0.1115815408572113</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.563416801569281</v>
+        <v>0.5206134667175235</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -4114,19 +4114,19 @@
         <v>6516</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2246</v>
+        <v>2950</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12472</v>
+        <v>12734</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1500039249337735</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05171275813749387</v>
+        <v>0.06792186130686771</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2871238638302969</v>
+        <v>0.2931508236394545</v>
       </c>
     </row>
     <row r="16">
@@ -4143,19 +4143,19 @@
         <v>17113</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11467</v>
+        <v>11198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21417</v>
+        <v>21954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7002998302258034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4692539017529834</v>
+        <v>0.458252314128024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8764348744541316</v>
+        <v>0.8984414894827897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4164,19 +4164,19 @@
         <v>11314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6941</v>
+        <v>7067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15625</v>
+        <v>15611</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5954650958361478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3652835828057722</v>
+        <v>0.3719258119378526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8223327386704704</v>
+        <v>0.8215853912707185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -4185,19 +4185,19 @@
         <v>28428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21076</v>
+        <v>20768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34905</v>
+        <v>34292</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6544413300300959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4851929116876945</v>
+        <v>0.4781030866087697</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8035545359795175</v>
+        <v>0.7894398944147897</v>
       </c>
     </row>
     <row r="17">
@@ -4214,19 +4214,19 @@
         <v>4315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11482</v>
+        <v>10583</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1766026400859418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04136856918639137</v>
+        <v>0.04049229368233061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4698638085624605</v>
+        <v>0.4330722435163823</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4248,19 +4248,19 @@
         <v>4316</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1012</v>
+        <v>1054</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12178</v>
+        <v>11811</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09935026517323571</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02329757418230743</v>
+        <v>0.02426731232042632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2803486361951357</v>
+        <v>0.2719078152990647</v>
       </c>
     </row>
     <row r="18">
@@ -4352,19 +4352,19 @@
         <v>10839</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5770</v>
+        <v>5549</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17653</v>
+        <v>18699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1598889069641789</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08512151364036899</v>
+        <v>0.08185474636946009</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2604086081891563</v>
+        <v>0.2758363927285745</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8529</v>
+        <v>9186</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1457011132144966</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4092974364470965</v>
+        <v>0.4408271250809896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -4394,19 +4394,19 @@
         <v>13875</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7367</v>
+        <v>7416</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22093</v>
+        <v>21937</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1565531796153699</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08312794284969091</v>
+        <v>0.08367260007001026</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2492822826618303</v>
+        <v>0.2475190760918368</v>
       </c>
     </row>
     <row r="20">
@@ -4423,19 +4423,19 @@
         <v>3244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9034</v>
+        <v>8849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04784921690830195</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01545067147273036</v>
+        <v>0.01508346201301648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1332731590195428</v>
+        <v>0.1305398965860571</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5821</v>
+        <v>4839</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05268155984946288</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2793451118401381</v>
+        <v>0.2322399019765014</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -4465,19 +4465,19 @@
         <v>4341</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9681</v>
+        <v>9947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04898536103275511</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01232085860444308</v>
+        <v>0.01235130868348943</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1092295345410742</v>
+        <v>0.1122336106903842</v>
       </c>
     </row>
     <row r="21">
@@ -4494,19 +4494,19 @@
         <v>52713</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45125</v>
+        <v>44332</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>58632</v>
+        <v>59052</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7775992526887056</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6656726517769583</v>
+        <v>0.6539749117835755</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8649258480775844</v>
+        <v>0.8711118957145032</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -4515,19 +4515,19 @@
         <v>15724</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10226</v>
+        <v>10647</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19706</v>
+        <v>19709</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.754604122649924</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4907718612863921</v>
+        <v>0.5109601208611598</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9457330025284891</v>
+        <v>0.9458551066323613</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>60</v>
@@ -4536,19 +4536,19 @@
         <v>68436</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>59248</v>
+        <v>59095</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75823</v>
+        <v>75607</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7721928106785445</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.668512170508254</v>
+        <v>0.6667926335842962</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8555394317204885</v>
+        <v>0.8531039015118314</v>
       </c>
     </row>
     <row r="22">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4881</v>
+        <v>5260</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01466262343881358</v>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07200333097910802</v>
+        <v>0.07759487615818918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5545</v>
+        <v>5212</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04701320428611656</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2661179571214422</v>
+        <v>0.2501140568059737</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7222</v>
+        <v>6993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02226864867333058</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08149335097450525</v>
+        <v>0.07890017849250328</v>
       </c>
     </row>
     <row r="23">
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6182</v>
+        <v>6230</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05639360851931184</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1715600297238436</v>
+        <v>0.1729017722765464</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -4732,19 +4732,19 @@
         <v>6239</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2134</v>
+        <v>2968</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12666</v>
+        <v>12552</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07466747127381687</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02554245980332703</v>
+        <v>0.03551789602391917</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1515853153020124</v>
+        <v>0.1502125011945266</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -4753,19 +4753,19 @@
         <v>8271</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4042</v>
+        <v>4077</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15486</v>
+        <v>14981</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06916168620558769</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03380216021730637</v>
+        <v>0.03409427920667998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1294925034998283</v>
+        <v>0.1252703073570234</v>
       </c>
     </row>
     <row r="25">
@@ -4782,19 +4782,19 @@
         <v>6474</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3177</v>
+        <v>3042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12718</v>
+        <v>12917</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1796739526429769</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08817605626157732</v>
+        <v>0.08442586267007757</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3529613996316582</v>
+        <v>0.3584746563995359</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -4803,19 +4803,19 @@
         <v>19769</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13082</v>
+        <v>12722</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29608</v>
+        <v>28073</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2365871897167894</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1565646853031073</v>
+        <v>0.1522509694756617</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3543330916793485</v>
+        <v>0.3359706603772723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -4824,19 +4824,19 @@
         <v>26243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17370</v>
+        <v>17298</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36056</v>
+        <v>36401</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2194396355803037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1452482130916151</v>
+        <v>0.144643848211306</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3014994107455035</v>
+        <v>0.3043831702601107</v>
       </c>
     </row>
     <row r="26">
@@ -4853,19 +4853,19 @@
         <v>26544</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20471</v>
+        <v>20251</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30816</v>
+        <v>31762</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7366719836161388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5681435102237408</v>
+        <v>0.5620147535747374</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.855240904684015</v>
+        <v>0.8814999181685241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -4874,19 +4874,19 @@
         <v>55374</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45282</v>
+        <v>46220</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63118</v>
+        <v>63801</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6626880743033137</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5419221293859283</v>
+        <v>0.553145038922884</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7553723527408728</v>
+        <v>0.7635420042369299</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>76</v>
@@ -4895,19 +4895,19 @@
         <v>81917</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>71395</v>
+        <v>70883</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>91699</v>
+        <v>92327</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6849789007506861</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5970000878288062</v>
+        <v>0.5927165656805662</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7667769419759748</v>
+        <v>0.7720308353339818</v>
       </c>
     </row>
     <row r="27">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4970</v>
+        <v>6076</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02726045522157239</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1379243952144165</v>
+        <v>0.1686299131823603</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7027</v>
+        <v>7616</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02605726470608007</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08409903816503614</v>
+        <v>0.09113957784066187</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -4966,19 +4966,19 @@
         <v>3160</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>330</v>
+        <v>984</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8628</v>
+        <v>8809</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02641977746342249</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002761528231229974</v>
+        <v>0.008225787366516021</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07214645285915736</v>
+        <v>0.07366417305819879</v>
       </c>
     </row>
     <row r="28">
@@ -5079,19 +5079,19 @@
         <v>25514</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16860</v>
+        <v>16055</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>37268</v>
+        <v>37256</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1782994213493327</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1178215521236204</v>
+        <v>0.1121995063697903</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2604440590366119</v>
+        <v>0.26036173744606</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -5100,19 +5100,19 @@
         <v>25514</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16860</v>
+        <v>16055</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>37268</v>
+        <v>37256</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1782994213493327</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1178215521236204</v>
+        <v>0.1121995063697903</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2604440590366119</v>
+        <v>0.26036173744606</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>26429</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17925</v>
+        <v>17030</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>36965</v>
+        <v>36476</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1846934251372878</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1252680262500215</v>
+        <v>0.1190112305640056</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2583255860164069</v>
+        <v>0.2549042483261229</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>25</v>
@@ -5159,19 +5159,19 @@
         <v>26429</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17925</v>
+        <v>17030</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>36965</v>
+        <v>36476</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1846934251372878</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1252680262500215</v>
+        <v>0.1190112305640056</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2583255860164069</v>
+        <v>0.2549042483261229</v>
       </c>
     </row>
     <row r="31">
@@ -5197,19 +5197,19 @@
         <v>87948</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>74777</v>
+        <v>75213</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>98479</v>
+        <v>99911</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6146130722152184</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5225696338277558</v>
+        <v>0.5256178040455581</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6882066722829443</v>
+        <v>0.6982138754742659</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>81</v>
@@ -5218,19 +5218,19 @@
         <v>87948</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>74777</v>
+        <v>75213</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>98479</v>
+        <v>99911</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6146130722152184</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5225696338277558</v>
+        <v>0.5256178040455581</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6882066722829443</v>
+        <v>0.6982138754742659</v>
       </c>
     </row>
     <row r="32">
@@ -5256,19 +5256,19 @@
         <v>3204</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8654</v>
+        <v>8362</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02239408129816099</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006648124421867479</v>
+        <v>0.00652789948093826</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0604774124518555</v>
+        <v>0.05843532484888252</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -5277,19 +5277,19 @@
         <v>3204</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8654</v>
+        <v>8362</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02239408129816099</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006648124421867479</v>
+        <v>0.00652789948093826</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0604774124518555</v>
+        <v>0.05843532484888252</v>
       </c>
     </row>
     <row r="33">
@@ -5369,19 +5369,19 @@
         <v>19041</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11636</v>
+        <v>11923</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28717</v>
+        <v>29821</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1302681146703799</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07960580227825394</v>
+        <v>0.08156842930421079</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1964637256696914</v>
+        <v>0.2040195781835142</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>36</v>
@@ -5390,19 +5390,19 @@
         <v>42011</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>29597</v>
+        <v>29997</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55339</v>
+        <v>56437</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1508145283448441</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1062489024873747</v>
+        <v>0.1076862333509012</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1986626033391324</v>
+        <v>0.2026022432951015</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>54</v>
@@ -5411,19 +5411,19 @@
         <v>61052</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>46594</v>
+        <v>47001</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>77618</v>
+        <v>78954</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.143743594293865</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1097038039858446</v>
+        <v>0.1106624066120732</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1827486536472208</v>
+        <v>0.1858925691372781</v>
       </c>
     </row>
     <row r="35">
@@ -5440,19 +5440,19 @@
         <v>12843</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7215</v>
+        <v>7324</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>21744</v>
+        <v>21118</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0878680605166821</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04936384719114745</v>
+        <v>0.05010644676677192</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.148761865474298</v>
+        <v>0.1444776600768732</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>49</v>
@@ -5461,19 +5461,19 @@
         <v>52794</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42003</v>
+        <v>40012</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>67672</v>
+        <v>67917</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1895256329278994</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1507871177499201</v>
+        <v>0.1436369681596747</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.242933714189369</v>
+        <v>0.2438155925602603</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>61</v>
@@ -5482,19 +5482,19 @@
         <v>65638</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>50678</v>
+        <v>50345</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>80932</v>
+        <v>82067</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1545407444850217</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1193192880818431</v>
+        <v>0.1185357463723865</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1905501334321612</v>
+        <v>0.1932225325448158</v>
       </c>
     </row>
     <row r="36">
@@ -5511,19 +5511,19 @@
         <v>107992</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>96382</v>
+        <v>94950</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>118824</v>
+        <v>117915</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7388192035239088</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6593940802760302</v>
+        <v>0.6495920634905427</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8129281302701264</v>
+        <v>0.8067083965473405</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>164</v>
@@ -5532,19 +5532,19 @@
         <v>177393</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>161031</v>
+        <v>160368</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>192744</v>
+        <v>193991</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6368231164456276</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5780834960881632</v>
+        <v>0.575704435706007</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6919291902917304</v>
+        <v>0.6964064137628166</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>258</v>
@@ -5553,19 +5553,19 @@
         <v>285385</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>266619</v>
+        <v>264337</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>307642</v>
+        <v>304213</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6719245028294122</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6277395677326761</v>
+        <v>0.6223679268615985</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.72432651226905</v>
+        <v>0.7162542304136439</v>
       </c>
     </row>
     <row r="37">
@@ -5582,19 +5582,19 @@
         <v>6292</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -5603,19 +5603,19 @@
         <v>6361</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2273</v>
+        <v>2183</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12592</v>
+        <v>12705</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0228367222816289</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.008159772220673777</v>
+        <v>0.007838259974920452</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04520319599451189</v>
+        <v>0.04561024777145335</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -5624,19 +5624,19 @@
         <v>12653</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6401</v>
+        <v>6214</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>22732</v>
+        <v>22767</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02979115839170099</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01507107547359262</v>
+        <v>0.01463028714139616</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05352180305863841</v>
+        <v>0.05360403252616031</v>
       </c>
     </row>
     <row r="38">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4928</v>
+        <v>4859</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2531424314924103</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7012509696671597</v>
+        <v>0.6914448275316804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5991,19 +5991,19 @@
         <v>4467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1183</v>
+        <v>1218</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8045</v>
+        <v>7156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5551961860170955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1470077997455382</v>
+        <v>0.151455496953611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>1</v>
+        <v>0.8895369854969369</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -6012,19 +6012,19 @@
         <v>6246</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2100</v>
+        <v>2671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10900</v>
+        <v>11072</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4143558510824417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1393430284605587</v>
+        <v>0.1772169846840736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7231152576654334</v>
+        <v>0.7345817153435654</v>
       </c>
     </row>
     <row r="5">
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5425</v>
+        <v>5480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1505068073021524</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6743288132790027</v>
+        <v>0.6812013673813748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6267</v>
+        <v>6161</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08032913583524073</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4158041796702429</v>
+        <v>0.4087390505281475</v>
       </c>
     </row>
     <row r="6">
@@ -6104,7 +6104,7 @@
         <v>5249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2100</v>
+        <v>2169</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>7028</v>
@@ -6113,7 +6113,7 @@
         <v>0.7468575685075897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2987490303328392</v>
+        <v>0.3085551724683196</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5642</v>
+        <v>6664</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.294297006680752</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7012626384795129</v>
+        <v>0.8283014002396762</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -6146,19 +6146,19 @@
         <v>7617</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3048</v>
+        <v>3168</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11722</v>
+        <v>11457</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5053150130823176</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.202215548009885</v>
+        <v>0.2101610480372024</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7776962723383457</v>
+        <v>0.76007911667957</v>
       </c>
     </row>
     <row r="7">
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4662</v>
+        <v>5310</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1682727942924784</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4335305772681062</v>
+        <v>0.4937973566448377</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6318,19 +6318,19 @@
         <v>3191</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5549</v>
+        <v>6711</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4754519191995335</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1468933376008059</v>
+        <v>0.1467183644967368</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8267844421445945</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -6339,19 +6339,19 @@
         <v>5000</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1963</v>
+        <v>1927</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9474</v>
+        <v>9234</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2863031400056784</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1124213453482087</v>
+        <v>0.1103135909440612</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5424431129745684</v>
+        <v>0.5287407213102365</v>
       </c>
     </row>
     <row r="10">
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4778</v>
+        <v>4724</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1879998131464837</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7119356223052021</v>
+        <v>0.7038764974557381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6053</v>
+        <v>5043</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07223694952061126</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3465732004394723</v>
+        <v>0.2887734453650045</v>
       </c>
     </row>
     <row r="11">
@@ -6431,7 +6431,7 @@
         <v>8944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6092</v>
+        <v>5444</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>10754</v>
@@ -6440,7 +6440,7 @@
         <v>0.8317272057075216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5664694227318938</v>
+        <v>0.5062026433551625</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4655</v>
+        <v>4593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.17174228388841</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6935682217923671</v>
+        <v>0.6843477357757486</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -6473,19 +6473,19 @@
         <v>10097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5756</v>
+        <v>6120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14154</v>
+        <v>14115</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5781349457797705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3295994653694764</v>
+        <v>0.3503951594003093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8104413172590007</v>
+        <v>0.8082012142470937</v>
       </c>
     </row>
     <row r="12">
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4418</v>
+        <v>4503</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1648059837655728</v>
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6583721798037588</v>
+        <v>0.6710251603448252</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5339</v>
+        <v>5563</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06332496469393979</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3057247973159504</v>
+        <v>0.3185265267243577</v>
       </c>
     </row>
     <row r="13">
@@ -6640,19 +6640,19 @@
         <v>4673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1703</v>
+        <v>1755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8758</v>
+        <v>8907</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2834858496564087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.103324627549795</v>
+        <v>0.1064963608241011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5313083770969955</v>
+        <v>0.5403716367263703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7968</v>
+        <v>7938</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1599198473980325</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.488861445444519</v>
+        <v>0.4870233111981322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -6682,19 +6682,19 @@
         <v>7279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3353</v>
+        <v>3455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12781</v>
+        <v>13139</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2220479044403852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1022737351094099</v>
+        <v>0.1053789939666235</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3898780271144807</v>
+        <v>0.4007818958577326</v>
       </c>
     </row>
     <row r="15">
@@ -6758,19 +6758,19 @@
         <v>11810</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7725</v>
+        <v>7576</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14780</v>
+        <v>14728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7165141503435912</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4686916229030041</v>
+        <v>0.4596283632736301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8966753724502049</v>
+        <v>0.8935036391758989</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6779,19 +6779,19 @@
         <v>9635</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4710</v>
+        <v>5096</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13584</v>
+        <v>14082</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5911341530195494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2889821594540971</v>
+        <v>0.31266504488165</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.833401474199797</v>
+        <v>0.8639491748175239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -6800,19 +6800,19 @@
         <v>21446</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15193</v>
+        <v>15390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26389</v>
+        <v>27148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6541742731444203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4634500689839037</v>
+        <v>0.4694495145779378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8049642917247883</v>
+        <v>0.8281082041237647</v>
       </c>
     </row>
     <row r="17">
@@ -6842,19 +6842,19 @@
         <v>4058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>950</v>
+        <v>976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9668</v>
+        <v>9032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2489459995824181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05828869336309818</v>
+        <v>0.05985885034666616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.593109447246455</v>
+        <v>0.5541387572376452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -6863,19 +6863,19 @@
         <v>4058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11178</v>
+        <v>10497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1237778224151944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03021707495298596</v>
+        <v>0.02963856124502515</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3409786512525817</v>
+        <v>0.3201865234106608</v>
       </c>
     </row>
     <row r="18">
@@ -6967,19 +6967,19 @@
         <v>4229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1623</v>
+        <v>1641</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8699</v>
+        <v>9222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1060789322861912</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04071403096217007</v>
+        <v>0.04117738549002432</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2182099790675835</v>
+        <v>0.2313280178026616</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -6988,19 +6988,19 @@
         <v>6128</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2302</v>
+        <v>2290</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12294</v>
+        <v>12861</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1866949629681392</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07013662752333069</v>
+        <v>0.06976399050402693</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3745093650223627</v>
+        <v>0.3917822245744683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -7009,19 +7009,19 @@
         <v>10357</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5270</v>
+        <v>5132</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17560</v>
+        <v>17373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1424840773188916</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0724954647865841</v>
+        <v>0.07059806773372623</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2415678483124431</v>
+        <v>0.2390015271625879</v>
       </c>
     </row>
     <row r="20">
@@ -7038,19 +7038,19 @@
         <v>4049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8887</v>
+        <v>8377</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1015587821461138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03996627041270719</v>
+        <v>0.04010666841829075</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2229420393968428</v>
+        <v>0.2101403312533251</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6970</v>
+        <v>6822</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05173481468127319</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2123391399796553</v>
+        <v>0.2078232405376056</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -7080,19 +7080,19 @@
         <v>5747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2406</v>
+        <v>2328</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11565</v>
+        <v>13508</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07905893011521702</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03309982168176323</v>
+        <v>0.0320319318742023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1591064276494592</v>
+        <v>0.1858298733778506</v>
       </c>
     </row>
     <row r="21">
@@ -7109,19 +7109,19 @@
         <v>31587</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26341</v>
+        <v>26442</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35012</v>
+        <v>35735</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7923622855676949</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6607643222220377</v>
+        <v>0.6632994931665583</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8782923836688706</v>
+        <v>0.8964275050820463</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -7130,19 +7130,19 @@
         <v>21916</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15682</v>
+        <v>15654</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27597</v>
+        <v>27351</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6676445480505849</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4777214840936758</v>
+        <v>0.4768861418838594</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8407019082685241</v>
+        <v>0.8332179727453404</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -7151,19 +7151,19 @@
         <v>53503</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45716</v>
+        <v>45191</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59773</v>
+        <v>60199</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7360413865597343</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6289211634709995</v>
+        <v>0.6216898205182415</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8222982272506204</v>
+        <v>0.8281577973260066</v>
       </c>
     </row>
     <row r="22">
@@ -7193,19 +7193,19 @@
         <v>3083</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8256</v>
+        <v>8631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0939256743000027</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02910704706866394</v>
+        <v>0.02950670792391384</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2515120089637509</v>
+        <v>0.2629214561929732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -7214,19 +7214,19 @@
         <v>3083</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8514</v>
+        <v>7956</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04241560600615709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01377200146872509</v>
+        <v>0.01332890821125371</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1171307992946372</v>
+        <v>0.109445346359137</v>
       </c>
     </row>
     <row r="23">
@@ -7318,19 +7318,19 @@
         <v>5131</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2356</v>
+        <v>1850</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10386</v>
+        <v>10933</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1084115506637834</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04976901811843724</v>
+        <v>0.03908240234494124</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2194352291972481</v>
+        <v>0.2309908955522845</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -7339,19 +7339,19 @@
         <v>5786</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2169</v>
+        <v>2147</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11912</v>
+        <v>12697</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1091301077084442</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04090415406143803</v>
+        <v>0.04048983832224354</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2246747986466748</v>
+        <v>0.2394849915922979</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -7360,19 +7360,19 @@
         <v>10917</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>5506</v>
+        <v>6121</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>19151</v>
+        <v>18670</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.108791202624057</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05486557545205523</v>
+        <v>0.06099948524666052</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1908391820796405</v>
+        <v>0.1860534981283747</v>
       </c>
     </row>
     <row r="25">
@@ -7389,19 +7389,19 @@
         <v>2554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7026</v>
+        <v>6920</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05396418520055479</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01601252645477795</v>
+        <v>0.01665341550137667</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1484514244404222</v>
+        <v>0.1462168950386659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8567</v>
+        <v>7602</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04670118488340303</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1615893709700759</v>
+        <v>0.1433706501045749</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -7431,19 +7431,19 @@
         <v>5030</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1604</v>
+        <v>1757</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10784</v>
+        <v>11004</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05012675527294703</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01598572064908013</v>
+        <v>0.017508697811784</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.10746807333846</v>
+        <v>0.1096541492449458</v>
       </c>
     </row>
     <row r="26">
@@ -7460,19 +7460,19 @@
         <v>37791</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32116</v>
+        <v>31993</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42269</v>
+        <v>42208</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7984757246318285</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6785746407646758</v>
+        <v>0.6759598588393051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.893085503916908</v>
+        <v>0.8917940526882133</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -7481,19 +7481,19 @@
         <v>40013</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32344</v>
+        <v>32243</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45896</v>
+        <v>45724</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7546796927480151</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6100271299549241</v>
+        <v>0.6081383228159687</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8656291336855124</v>
+        <v>0.8623839040401564</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>74</v>
@@ -7502,19 +7502,19 @@
         <v>77804</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69174</v>
+        <v>68738</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85611</v>
+        <v>85079</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7753359482140137</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6893354503907492</v>
+        <v>0.6849885113285312</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.853131944206604</v>
+        <v>0.8478262359213968</v>
       </c>
     </row>
     <row r="27">
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6132</v>
+        <v>6805</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0391485395038333</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1295633001248921</v>
+        <v>0.1437755152000304</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -7552,19 +7552,19 @@
         <v>4745</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1324</v>
+        <v>1172</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11963</v>
+        <v>10571</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08948901466013769</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02496851598185532</v>
+        <v>0.02210920776407593</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2256288376161483</v>
+        <v>0.1993700218847913</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -7573,19 +7573,19 @@
         <v>6598</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2604</v>
+        <v>2497</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13171</v>
+        <v>14027</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06574609388898218</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02594950520637634</v>
+        <v>0.02487932253155756</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.131247273698299</v>
+        <v>0.139780483237313</v>
       </c>
     </row>
     <row r="28">
@@ -7686,19 +7686,19 @@
         <v>19272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11290</v>
+        <v>10849</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30915</v>
+        <v>29414</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1308675502504833</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07666845784952116</v>
+        <v>0.07366844318702753</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2099296020274511</v>
+        <v>0.1997377393563593</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -7707,19 +7707,19 @@
         <v>19272</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11290</v>
+        <v>10849</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30915</v>
+        <v>29414</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1308675502504833</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07666845784952116</v>
+        <v>0.07366844318702753</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2099296020274511</v>
+        <v>0.1997377393563593</v>
       </c>
     </row>
     <row r="30">
@@ -7745,19 +7745,19 @@
         <v>14717</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7445</v>
+        <v>8415</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23504</v>
+        <v>23728</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09993973696036412</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05055521811016791</v>
+        <v>0.05714048439077937</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1596065294424943</v>
+        <v>0.1611278280144736</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -7766,19 +7766,19 @@
         <v>14717</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7445</v>
+        <v>8415</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>23504</v>
+        <v>23728</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09993973696036412</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05055521811016791</v>
+        <v>0.05714048439077937</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1596065294424943</v>
+        <v>0.1611278280144736</v>
       </c>
     </row>
     <row r="31">
@@ -7804,19 +7804,19 @@
         <v>104107</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>90206</v>
+        <v>91124</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>115256</v>
+        <v>115539</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7069439206925593</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6125504786201122</v>
+        <v>0.6187871388680892</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7826513121563341</v>
+        <v>0.7845727448032475</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>82</v>
@@ -7825,19 +7825,19 @@
         <v>104107</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>90206</v>
+        <v>91124</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>115256</v>
+        <v>115539</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7069439206925593</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6125504786201122</v>
+        <v>0.6187871388680892</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7826513121563341</v>
+        <v>0.7845727448032475</v>
       </c>
     </row>
     <row r="32">
@@ -7863,19 +7863,19 @@
         <v>9167</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4456</v>
+        <v>4635</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17306</v>
+        <v>17818</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06224879209659322</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03025606374333431</v>
+        <v>0.03147441179948206</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1175153811881186</v>
+        <v>0.1209970427149795</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -7884,19 +7884,19 @@
         <v>9167</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4456</v>
+        <v>4635</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17306</v>
+        <v>17818</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06224879209659322</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03025606374333431</v>
+        <v>0.03147441179948206</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1175153811881186</v>
+        <v>0.1209970427149795</v>
       </c>
     </row>
     <row r="33">
@@ -7976,19 +7976,19 @@
         <v>17621</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>33</v>
@@ -7997,19 +7997,19 @@
         <v>41450</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>28539</v>
+        <v>29966</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>55390</v>
+        <v>56150</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1569104835467029</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1080355890343721</v>
+        <v>0.113437333923083</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2096805142916983</v>
+        <v>0.2125568923162612</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>53</v>
@@ -8018,19 +8018,19 @@
         <v>59071</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>44618</v>
+        <v>44829</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>75389</v>
+        <v>76956</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.153184258720889</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1157044191365999</v>
+        <v>0.1162514950652214</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1954990485693039</v>
+        <v>0.1995618596530458</v>
       </c>
     </row>
     <row r="35">
@@ -8047,19 +8047,19 @@
         <v>6603</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3220</v>
+        <v>3198</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12386</v>
+        <v>12658</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05436115516527579</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02651446948443541</v>
+        <v>0.02633384366399056</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1019802284320771</v>
+        <v>0.1042148095780319</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>17</v>
@@ -8068,19 +8068,19 @@
         <v>21364</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12708</v>
+        <v>13263</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>33384</v>
+        <v>32716</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08087461002507983</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04810655419008456</v>
+        <v>0.05020921704897973</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1263750525768704</v>
+        <v>0.1238489530766298</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>25</v>
@@ -8089,19 +8089,19 @@
         <v>27967</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17183</v>
+        <v>18673</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39748</v>
+        <v>40440</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07252374083557288</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04455920165435062</v>
+        <v>0.04842385717871541</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1030738806477149</v>
+        <v>0.104869105963062</v>
       </c>
     </row>
     <row r="36">
@@ -8118,19 +8118,19 @@
         <v>95381</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>86858</v>
+        <v>86182</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>102508</v>
+        <v>102965</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7853036358561492</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7151310730211816</v>
+        <v>0.70955935838272</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8439817150646605</v>
+        <v>0.8477445928385264</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>143</v>
@@ -8139,19 +8139,19 @@
         <v>179191</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>161834</v>
+        <v>161657</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>195444</v>
+        <v>195735</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6783330877674847</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6126275587121156</v>
+        <v>0.6119576325084326</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7398570770519776</v>
+        <v>0.7409619449483059</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>249</v>
@@ -8160,19 +8160,19 @@
         <v>274573</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>255747</v>
+        <v>254357</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>292482</v>
+        <v>291250</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7120253040004054</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6632059842190153</v>
+        <v>0.6595998517412024</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.7584654182477351</v>
+        <v>0.7552709987758915</v>
       </c>
     </row>
     <row r="37">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -8210,19 +8210,19 @@
         <v>22159</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13620</v>
+        <v>14308</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34972</v>
+        <v>33361</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08388181866073258</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0515598848619447</v>
+        <v>0.05416442824160436</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1323887835293043</v>
+        <v>0.1262896914969514</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -8231,19 +8231,19 @@
         <v>24011</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15382</v>
+        <v>15168</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>35673</v>
+        <v>36797</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06226669644313272</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03988949629877023</v>
+        <v>0.03933407505405656</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09250831145989986</v>
+        <v>0.0954229552813695</v>
       </c>
     </row>
     <row r="38">
@@ -8577,19 +8577,19 @@
         <v>3364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6411</v>
+        <v>6441</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2691216473614534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1060155174978277</v>
+        <v>0.1050756437856532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5128630845137172</v>
+        <v>0.5152513767120662</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -8598,19 +8598,19 @@
         <v>4409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8334</v>
+        <v>8631</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2941116678754451</v>
+        <v>0.2941116678754452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1185019335489853</v>
+        <v>0.1177810241157631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5559497242360538</v>
+        <v>0.57575294539118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -8619,19 +8619,19 @@
         <v>7773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4254</v>
+        <v>4458</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12638</v>
+        <v>12655</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2827483775783924</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1547195432098909</v>
+        <v>0.1621558552296565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4597009230690153</v>
+        <v>0.4603172022959459</v>
       </c>
     </row>
     <row r="5">
@@ -8651,16 +8651,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4023</v>
+        <v>3831</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09060478561293937</v>
+        <v>0.09060478561293939</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3217868618257292</v>
+        <v>0.306441566741281</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3244</v>
+        <v>3526</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04460497598281887</v>
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2164191585881093</v>
+        <v>0.2351875848869399</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -8690,19 +8690,19 @@
         <v>1801</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4419</v>
+        <v>4579</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06552169312370965</v>
+        <v>0.06552169312370966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01864541177896163</v>
+        <v>0.01873339851548815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1607538701041119</v>
+        <v>0.166573978864774</v>
       </c>
     </row>
     <row r="6">
@@ -8719,19 +8719,19 @@
         <v>6642</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3952</v>
+        <v>3729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9201</v>
+        <v>9354</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5313336215551434</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3161272150340259</v>
+        <v>0.298324221632152</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7360013797493771</v>
+        <v>0.7482636378059011</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -8740,19 +8740,19 @@
         <v>8690</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5281</v>
+        <v>5163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11985</v>
+        <v>11508</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5796845538965709</v>
+        <v>0.579684553896571</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3522923067678126</v>
+        <v>0.3444349682900945</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7994517342728675</v>
+        <v>0.7676454807446799</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -8761,19 +8761,19 @@
         <v>15332</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10872</v>
+        <v>10873</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19198</v>
+        <v>19325</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5576987504026851</v>
+        <v>0.5576987504026852</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3954750349170289</v>
+        <v>0.3954977649327842</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6983221328768374</v>
+        <v>0.7029214240826595</v>
       </c>
     </row>
     <row r="7">
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4523</v>
+        <v>3935</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1089399454704635</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3617833248056158</v>
+        <v>0.3147831362254118</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4031</v>
+        <v>3674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08159880224516501</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2688646896356887</v>
+        <v>0.245056891840848</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -8832,19 +8832,19 @@
         <v>2585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>690</v>
+        <v>654</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6194</v>
+        <v>5910</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09403117889521274</v>
+        <v>0.09403117889521276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02510051669074961</v>
+        <v>0.02378400479919815</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2253126846987486</v>
+        <v>0.2149691843097181</v>
       </c>
     </row>
     <row r="8">
@@ -8936,19 +8936,19 @@
         <v>3396</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1191</v>
+        <v>1253</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6710</v>
+        <v>6883</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1810536239664388</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0635097318227543</v>
+        <v>0.06679443294470343</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3576908395183354</v>
+        <v>0.3669369169530667</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -8957,19 +8957,19 @@
         <v>1952</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4660</v>
+        <v>4828</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1257047042282457</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0380168506632995</v>
+        <v>0.03725966011739158</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3000303678004921</v>
+        <v>0.3108917630917031</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -8978,19 +8978,19 @@
         <v>5349</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2472</v>
+        <v>2818</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9273</v>
+        <v>9518</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.155984137880263</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07209121935957913</v>
+        <v>0.08218620668489619</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2704352696282292</v>
+        <v>0.2775777781292795</v>
       </c>
     </row>
     <row r="10">
@@ -9010,16 +9010,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3302</v>
+        <v>3552</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05774221923401079</v>
+        <v>0.05774221923401078</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1760345880066826</v>
+        <v>0.1893320906881795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -9028,19 +9028,19 @@
         <v>3519</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1467</v>
+        <v>1555</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6739</v>
+        <v>6485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2265624643307423</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09446435732130562</v>
+        <v>0.1001220138831456</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4339111976072575</v>
+        <v>0.4175264441759206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -9049,19 +9049,19 @@
         <v>4602</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2044</v>
+        <v>2141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8335</v>
+        <v>8577</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1342068874793222</v>
+        <v>0.1342068874793223</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05959587483137862</v>
+        <v>0.0624483022893936</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2430840195458999</v>
+        <v>0.2501416506950679</v>
       </c>
     </row>
     <row r="11">
@@ -9078,19 +9078,19 @@
         <v>12690</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9123</v>
+        <v>8990</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15956</v>
+        <v>15710</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6764861192028241</v>
+        <v>0.676486119202824</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4863304792961297</v>
+        <v>0.4792626763907992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8506041161765489</v>
+        <v>0.8374579378123741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -9099,19 +9099,19 @@
         <v>7574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4617</v>
+        <v>4402</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10674</v>
+        <v>10541</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4876521521149873</v>
+        <v>0.4876521521149874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2972971599267629</v>
+        <v>0.2834525501380921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6872543849986921</v>
+        <v>0.6787298014063433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -9120,19 +9120,19 @@
         <v>20264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15875</v>
+        <v>15646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24930</v>
+        <v>24873</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5909565274258183</v>
+        <v>0.5909565274258184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4629598466425756</v>
+        <v>0.4562922266901717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7270386597385962</v>
+        <v>0.7253596978850019</v>
       </c>
     </row>
     <row r="12">
@@ -9152,16 +9152,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4997</v>
+        <v>4374</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08471803759672639</v>
+        <v>0.08471803759672636</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2663662772930024</v>
+        <v>0.2331759165651015</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -9170,19 +9170,19 @@
         <v>2486</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5030</v>
+        <v>5604</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1600806793260246</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04025347027047664</v>
+        <v>0.04052471194919734</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3238825692460248</v>
+        <v>0.3608573281489296</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -9191,19 +9191,19 @@
         <v>4075</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8085</v>
+        <v>8362</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1188524472145964</v>
+        <v>0.1188524472145965</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05415955461504401</v>
+        <v>0.05401118969980272</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.235789236887111</v>
+        <v>0.243861735682164</v>
       </c>
     </row>
     <row r="13">
@@ -9295,19 +9295,19 @@
         <v>3217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1307</v>
+        <v>1105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6335</v>
+        <v>6583</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1411668400209998</v>
+        <v>0.1411668400209999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05736553013193601</v>
+        <v>0.04848496161681225</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2779915349575319</v>
+        <v>0.2888736757175239</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -9316,19 +9316,19 @@
         <v>3302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1199</v>
+        <v>1374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6317</v>
+        <v>6641</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1383287539213285</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05020636201621671</v>
+        <v>0.0575599526384791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2646142914521403</v>
+        <v>0.2781587410830945</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -9337,19 +9337,19 @@
         <v>6520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10686</v>
+        <v>10712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1397148091287059</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07739626229011272</v>
+        <v>0.07741740131885372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2290037487365728</v>
+        <v>0.2295642587565119</v>
       </c>
     </row>
     <row r="15">
@@ -9366,19 +9366,19 @@
         <v>5127</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2490</v>
+        <v>2558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8702</v>
+        <v>8860</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.224970870034737</v>
+        <v>0.2249708700347371</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.109276074805625</v>
+        <v>0.1122373331937017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3818149444068825</v>
+        <v>0.388751282873138</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -9387,19 +9387,19 @@
         <v>7365</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3925</v>
+        <v>4081</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11668</v>
+        <v>11478</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3084904225231789</v>
+        <v>0.308490422523179</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.164393051671742</v>
+        <v>0.1709458989212757</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4887160912229676</v>
+        <v>0.4807803028113701</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -9408,19 +9408,19 @@
         <v>12492</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8161</v>
+        <v>8007</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17652</v>
+        <v>17586</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2677014166301422</v>
+        <v>0.2677014166301421</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1748933259659576</v>
+        <v>0.1715903669469178</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.378284238773764</v>
+        <v>0.3768563918299705</v>
       </c>
     </row>
     <row r="16">
@@ -9437,19 +9437,19 @@
         <v>13888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9976</v>
+        <v>10146</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17311</v>
+        <v>17496</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6093711885538829</v>
+        <v>0.6093711885538831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4377485717640447</v>
+        <v>0.4452067955950314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7595943640159466</v>
+        <v>0.7677131503875496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -9458,19 +9458,19 @@
         <v>13207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9475</v>
+        <v>9556</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17182</v>
+        <v>17030</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5531808235554926</v>
+        <v>0.5531808235554927</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3968939069600509</v>
+        <v>0.4002564419537058</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7197068759675046</v>
+        <v>0.7133253742473322</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -9479,19 +9479,19 @@
         <v>27094</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21862</v>
+        <v>21518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32198</v>
+        <v>32003</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5806228902424329</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4685071280484497</v>
+        <v>0.4611283962384759</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6899993921166107</v>
+        <v>0.6858260120116138</v>
       </c>
     </row>
     <row r="17">
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2953</v>
+        <v>2568</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02449110139038005</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1295644494919216</v>
+        <v>0.112672843695045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3189</v>
+        <v>3755</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01196088399871896</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06834511652707603</v>
+        <v>0.08047245417050146</v>
       </c>
     </row>
     <row r="18">
@@ -9646,19 +9646,19 @@
         <v>8009</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4310</v>
+        <v>4262</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13217</v>
+        <v>13446</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.103823843488826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05586740248748109</v>
+        <v>0.05525106050203998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1713341808866137</v>
+        <v>0.1743090628985299</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -9667,19 +9667,19 @@
         <v>3963</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1767</v>
+        <v>1801</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7114</v>
+        <v>7120</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09472644664805531</v>
+        <v>0.0947264466480553</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04222180751393825</v>
+        <v>0.04305597783872447</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1700306186757735</v>
+        <v>0.170186549670534</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -9688,19 +9688,19 @@
         <v>11972</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7496</v>
+        <v>7426</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18182</v>
+        <v>19165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1006247357365619</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06299978109388035</v>
+        <v>0.06241641711770753</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1528164932350173</v>
+        <v>0.1610775789730061</v>
       </c>
     </row>
     <row r="20">
@@ -9717,19 +9717,19 @@
         <v>20501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14472</v>
+        <v>14653</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27428</v>
+        <v>27629</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2657647505016861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1876093477533547</v>
+        <v>0.1899587902623041</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3555649338687303</v>
+        <v>0.358167637460055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -9738,19 +9738,19 @@
         <v>9645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6200</v>
+        <v>6147</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13504</v>
+        <v>13925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2305207191359664</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1481933346598447</v>
+        <v>0.1469258644582655</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3227529177715978</v>
+        <v>0.3328130381901604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -9759,19 +9759,19 @@
         <v>30146</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22623</v>
+        <v>23409</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38189</v>
+        <v>38515</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2533711552857649</v>
+        <v>0.2533711552857648</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1901474050716623</v>
+        <v>0.1967529175373292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3209769978775443</v>
+        <v>0.3237115303823302</v>
       </c>
     </row>
     <row r="21">
@@ -9788,19 +9788,19 @@
         <v>46370</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39114</v>
+        <v>39343</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53783</v>
+        <v>53202</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6011203664801807</v>
+        <v>0.6011203664801809</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5070582133323421</v>
+        <v>0.5100288210591969</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.697217782036102</v>
+        <v>0.6896843292086219</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -9809,19 +9809,19 @@
         <v>27053</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22818</v>
+        <v>22491</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31090</v>
+        <v>31223</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.6466060019000175</v>
+        <v>0.6466060019000173</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5453719239056001</v>
+        <v>0.5375717843954599</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7430905540886434</v>
+        <v>0.7462646338852985</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>120</v>
@@ -9830,19 +9830,19 @@
         <v>73423</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>64741</v>
+        <v>64343</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81991</v>
+        <v>81639</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.617115430940393</v>
+        <v>0.6171154309403929</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5441439300511902</v>
+        <v>0.5407943206087629</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6891277562602078</v>
+        <v>0.6861674835814856</v>
       </c>
     </row>
     <row r="22">
@@ -9859,19 +9859,19 @@
         <v>2259</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6875</v>
+        <v>6854</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02929103952930717</v>
+        <v>0.02929103952930718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007933660218328982</v>
+        <v>0.008019652362845757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08912683365760041</v>
+        <v>0.08885869499985308</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -9883,16 +9883,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4109</v>
+        <v>3635</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02814683231596093</v>
+        <v>0.02814683231596092</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09820977538438372</v>
+        <v>0.08687093007879014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -9901,19 +9901,19 @@
         <v>3437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1228</v>
+        <v>1195</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7866</v>
+        <v>7184</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02888867803728036</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01032443177459743</v>
+        <v>0.01004109882183494</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06611165996641588</v>
+        <v>0.0603840621280481</v>
       </c>
     </row>
     <row r="23">
@@ -10005,19 +10005,19 @@
         <v>2795</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>724</v>
+        <v>967</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6773</v>
+        <v>6450</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08499909452146588</v>
+        <v>0.0849990945214659</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02201650287548575</v>
+        <v>0.02939843916170565</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.205992901591609</v>
+        <v>0.1961531668049551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -10026,19 +10026,19 @@
         <v>8794</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5261</v>
+        <v>5702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13264</v>
+        <v>13408</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0872990544974083</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05222855612653859</v>
+        <v>0.05660420399117896</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1316714549700135</v>
+        <v>0.1330999034123398</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -10047,19 +10047,19 @@
         <v>11589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7116</v>
+        <v>7887</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17034</v>
+        <v>17412</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08673307666400278</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05325393676658488</v>
+        <v>0.05902604793847124</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1274800986090787</v>
+        <v>0.1303127631983761</v>
       </c>
     </row>
     <row r="25">
@@ -10076,19 +10076,19 @@
         <v>5238</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2437</v>
+        <v>2525</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9008</v>
+        <v>9178</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1593106317467866</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07410671123604608</v>
+        <v>0.07680468114627605</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2739482472333858</v>
+        <v>0.2791154016571815</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -10097,19 +10097,19 @@
         <v>28872</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23411</v>
+        <v>22861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35962</v>
+        <v>36037</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2866024091311385</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2323971641008441</v>
+        <v>0.2269374555452449</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3569805687427252</v>
+        <v>0.3577298828182104</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -10118,19 +10118,19 @@
         <v>34110</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27468</v>
+        <v>26955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41720</v>
+        <v>41442</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2552782447422294</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2055669793232688</v>
+        <v>0.2017320147476224</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3122301059807833</v>
+        <v>0.3101486531628199</v>
       </c>
     </row>
     <row r="26">
@@ -10147,19 +10147,19 @@
         <v>21532</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17085</v>
+        <v>16755</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25650</v>
+        <v>25458</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6548380649382866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5195990929966061</v>
+        <v>0.5095756678980078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7800815303708361</v>
+        <v>0.7742424098932851</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -10168,19 +10168,19 @@
         <v>57277</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>50286</v>
+        <v>50727</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63968</v>
+        <v>64578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5685706726381782</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4991757790363943</v>
+        <v>0.5035492196473811</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6349919360656678</v>
+        <v>0.6410522888710692</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>150</v>
@@ -10189,19 +10189,19 @@
         <v>78808</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>70535</v>
+        <v>70655</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>86926</v>
+        <v>87014</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5897994906603491</v>
+        <v>0.5897994906603492</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.527881413024109</v>
+        <v>0.52878227001282</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.650553031468259</v>
+        <v>0.6512118545512877</v>
       </c>
     </row>
     <row r="27">
@@ -10218,19 +10218,19 @@
         <v>3316</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1143</v>
+        <v>1301</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6844</v>
+        <v>6717</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.100852208793461</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03477181187637424</v>
+        <v>0.03955479583164134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2081422930417571</v>
+        <v>0.2042929273411306</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -10239,19 +10239,19 @@
         <v>5795</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2839</v>
+        <v>2894</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9817</v>
+        <v>10405</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05752786373327501</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02818583718483044</v>
+        <v>0.02873006778761529</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0974530902318155</v>
+        <v>0.1032874109617768</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>17</v>
@@ -10260,19 +10260,19 @@
         <v>9111</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5314</v>
+        <v>5492</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13798</v>
+        <v>14425</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06818918793341863</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03976850679920232</v>
+        <v>0.04110228649126271</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1032622991798653</v>
+        <v>0.1079593592235641</v>
       </c>
     </row>
     <row r="28">
@@ -10377,19 +10377,19 @@
         <v>28337</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>21156</v>
+        <v>21503</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36632</v>
+        <v>36638</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1863152463296589</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1391008072398993</v>
+        <v>0.1413830173251843</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2408562050788393</v>
+        <v>0.240896798304907</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -10398,19 +10398,19 @@
         <v>28337</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21302</v>
+        <v>21031</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36076</v>
+        <v>37045</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1836538176275735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1380629502423921</v>
+        <v>0.1363040678052573</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2338157299761888</v>
+        <v>0.2400915682592286</v>
       </c>
     </row>
     <row r="30">
@@ -10440,19 +10440,19 @@
         <v>35474</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>27900</v>
+        <v>28240</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>43598</v>
+        <v>42921</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2332434792735958</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1834408775477154</v>
+        <v>0.1856769529473712</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2866572253203915</v>
+        <v>0.2822098124052957</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>69</v>
@@ -10461,19 +10461,19 @@
         <v>35474</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28381</v>
+        <v>28094</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>43604</v>
+        <v>44216</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2299117020704856</v>
+        <v>0.2299117020704857</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1839397267161948</v>
+        <v>0.1820785915128814</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2826054746319946</v>
+        <v>0.2865697256352586</v>
       </c>
     </row>
     <row r="31">
@@ -10503,19 +10503,19 @@
         <v>83356</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72845</v>
+        <v>74747</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>93220</v>
+        <v>92457</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5480699092137292</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4789623026253798</v>
+        <v>0.4914677317620351</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6129295094013566</v>
+        <v>0.6079107291078343</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>152</v>
@@ -10524,19 +10524,19 @@
         <v>85560</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>76243</v>
+        <v>75534</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>95452</v>
+        <v>95129</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5545255253731629</v>
+        <v>0.554525525373163</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4941440614856673</v>
+        <v>0.4895474423264084</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6186348509741837</v>
+        <v>0.6165451702111779</v>
       </c>
     </row>
     <row r="32">
@@ -10566,19 +10566,19 @@
         <v>4923</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2541</v>
+        <v>2417</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8882</v>
+        <v>8821</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03237136518301603</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01670488352000695</v>
+        <v>0.01588991389173211</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0583979918210037</v>
+        <v>0.05799966100967532</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -10587,19 +10587,19 @@
         <v>4923</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2487</v>
+        <v>2564</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9043</v>
+        <v>8840</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03190895492877775</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.016118833587011</v>
+        <v>0.01662031023702969</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05860897014589384</v>
+        <v>0.05729032321565698</v>
       </c>
     </row>
     <row r="33">
@@ -10691,19 +10691,19 @@
         <v>20782</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14313</v>
+        <v>14436</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28276</v>
+        <v>28199</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1249837781147398</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08608253969365263</v>
+        <v>0.08682244102076396</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1700538757859378</v>
+        <v>0.1695964320653612</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>89</v>
@@ -10712,19 +10712,19 @@
         <v>50758</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>41701</v>
+        <v>41084</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>62417</v>
+        <v>61681</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.145412466116686</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1194659103163253</v>
+        <v>0.1176966137388819</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1788124168671437</v>
+        <v>0.1767058550820201</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>122</v>
@@ -10733,19 +10733,19 @@
         <v>71540</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>60013</v>
+        <v>60382</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>84978</v>
+        <v>85024</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1388211376371238</v>
+        <v>0.1388211376371237</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1164547941732545</v>
+        <v>0.1171699400755572</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1648976298535611</v>
+        <v>0.1649879359501877</v>
       </c>
     </row>
     <row r="35">
@@ -10762,19 +10762,19 @@
         <v>33082</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24923</v>
+        <v>25408</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>42449</v>
+        <v>41793</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.1989611680992524</v>
+        <v>0.1989611680992523</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1498886722277918</v>
+        <v>0.1528106176765728</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2552974360446147</v>
+        <v>0.2513508465664998</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>171</v>
@@ -10783,19 +10783,19 @@
         <v>85543</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>73348</v>
+        <v>75011</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>96572</v>
+        <v>98288</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2450642005174934</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2101284904145111</v>
+        <v>0.2148936988658837</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.276662050084681</v>
+        <v>0.2815762324123884</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>222</v>
@@ -10804,19 +10804,19 @@
         <v>118625</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>104841</v>
+        <v>105113</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>133243</v>
+        <v>133717</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2301890293589939</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2034422216190827</v>
+        <v>0.2039690172266451</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2585554273917871</v>
+        <v>0.2594744365873226</v>
       </c>
     </row>
     <row r="36">
@@ -10833,19 +10833,19 @@
         <v>103326</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>93210</v>
+        <v>92347</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>112911</v>
+        <v>113033</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.6214172553536679</v>
+        <v>0.6214172553536678</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5605822590192929</v>
+        <v>0.5553921811543824</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6790658267396311</v>
+        <v>0.6797969029141568</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>368</v>
@@ -10854,19 +10854,19 @@
         <v>197156</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>184238</v>
+        <v>183524</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>211929</v>
+        <v>210807</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5648159472840417</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5278066124919548</v>
+        <v>0.5257605548571136</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6071375653903199</v>
+        <v>0.6039211555281464</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>524</v>
@@ -10875,19 +10875,19 @@
         <v>300482</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>284137</v>
+        <v>282250</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>319352</v>
+        <v>316650</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.5830783934002222</v>
+        <v>0.5830783934002221</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5513619007479151</v>
+        <v>0.5476995193799574</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6196953441806786</v>
+        <v>0.6144516993599087</v>
       </c>
     </row>
     <row r="37">
@@ -10904,19 +10904,19 @@
         <v>9085</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5092</v>
+        <v>5446</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15153</v>
+        <v>15348</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.05463779843234001</v>
+        <v>0.05463779843233999</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03062575647799136</v>
+        <v>0.03275558963746778</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09113482176503843</v>
+        <v>0.0923029211944134</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>29</v>
@@ -10925,19 +10925,19 @@
         <v>15606</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10980</v>
+        <v>10905</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22550</v>
+        <v>22584</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04470738608177895</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03145692930807416</v>
+        <v>0.03124080591096353</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06460144635366814</v>
+        <v>0.06469842922239172</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>43</v>
@@ -10946,19 +10946,19 @@
         <v>24691</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18150</v>
+        <v>18405</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32980</v>
+        <v>33386</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04791143960366025</v>
+        <v>0.04791143960366024</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03522007894092064</v>
+        <v>0.03571474376214174</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06399652536547699</v>
+        <v>0.06478505436980217</v>
       </c>
     </row>
     <row r="38">
